--- a/data/HR1_2/A_KPC_35_2/A_KPC_35_2_2020.xlsx
+++ b/data/HR1_2/A_KPC_35_2/A_KPC_35_2_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10201B96-C186-42C8-B9D8-54EE43BA1C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DEE43-F3EA-4333-8857-635DF6E7EE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6266,7 +6266,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13456,7 +13456,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" activeCellId="1" sqref="A2:XFD2 A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
